--- a/times.xlsx
+++ b/times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byang059/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byang059/develop/open_source/xzc02/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>东坡</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>2016.11.19</t>
+  </si>
+  <si>
+    <t>git 管理</t>
   </si>
 </sst>
 </file>
@@ -361,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -386,10 +394,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/times.xlsx
+++ b/times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>东坡</t>
   </si>
@@ -51,19 +51,37 @@
   </si>
   <si>
     <t>git 管理</t>
+  </si>
+  <si>
+    <t>2016.11.5</t>
+  </si>
+  <si>
+    <t>1.5需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每次刷新完自动到最顶端 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击首页，有趣，有料刷新页面 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -395,21 +417,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -422,6 +444,57 @@
       </c>
       <c r="E3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/times.xlsx
+++ b/times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>东坡</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve">点击首页，有趣，有料刷新页面 </t>
+  </si>
+  <si>
+    <t>点击我来，发完大作跳转到多版本</t>
+  </si>
+  <si>
+    <t>2016.11.22</t>
+  </si>
+  <si>
+    <t>接口返回501</t>
+  </si>
+  <si>
+    <t>接口返回501，因为xutils拼接问题，兼容模式接口返回404</t>
   </si>
 </sst>
 </file>
@@ -384,15 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -497,6 +510,40 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/times.xlsx
+++ b/times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>东坡</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>接口返回501，因为xutils拼接问题，兼容模式接口返回404</t>
+  </si>
+  <si>
+    <t>2016.11.23</t>
+  </si>
+  <si>
+    <t>修复xutils参数问题，有待测试</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,6 +550,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/times.xlsx
+++ b/times.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byang059/develop/open_source/xzc02/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14415" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>东坡</t>
   </si>
@@ -65,33 +60,39 @@
     <t xml:space="preserve">点击首页，有趣，有料刷新页面 </t>
   </si>
   <si>
-    <t>点击我来，发完大作跳转到多版本</t>
+    <t>超超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016.11.22</t>
-  </si>
-  <si>
-    <t>接口返回501</t>
-  </si>
-  <si>
-    <t>接口返回501，因为xutils拼接问题，兼容模式接口返回404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016.11.23</t>
-  </si>
-  <si>
-    <t>修复xutils参数问题，有待测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI细节修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,6 +101,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -182,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,19 +410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -431,7 +438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -465,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -482,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -499,7 +506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -516,58 +523,43 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/times.xlsx
+++ b/times.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14415" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>东坡</t>
   </si>
@@ -81,6 +81,34 @@
   </si>
   <si>
     <t>UI细节修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上个月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页面的重新布局（包括来回跳转的BUG）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.1.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击参与话题会出现2个话题 这个BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI细节最后一次调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -557,6 +585,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/times.xlsx
+++ b/times.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>东坡</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>UI细节最后一次调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题页面上的分享</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -636,6 +648,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/times.xlsx
+++ b/times.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byang059/develop/open_source/xzc02/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14415" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>东坡</t>
   </si>
@@ -122,6 +127,12 @@
   <si>
     <t>话题页面上的分享</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近</t>
+  </si>
+  <si>
+    <t>修改一些bug及延伸需求</t>
   </si>
 </sst>
 </file>
@@ -132,7 +143,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,7 +155,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -442,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -512,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -529,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -546,7 +557,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -563,7 +574,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -580,7 +591,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -597,7 +608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -614,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -631,7 +642,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -648,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -663,6 +674,23 @@
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/times.xlsx
+++ b/times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>东坡</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>修改一些bug及延伸需求</t>
+  </si>
+  <si>
+    <t>总共</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>工费</t>
   </si>
 </sst>
 </file>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +481,7 @@
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -489,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -540,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -557,7 +566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -574,7 +583,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -591,7 +600,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -608,7 +617,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -625,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -642,7 +651,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -659,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -676,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -691,6 +700,62 @@
       </c>
       <c r="E13">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E13)</f>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>E2+E3+E5+E6+E13</f>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="F16">
+        <f>E16/E15</f>
+        <v>0.5267857142857143</v>
+      </c>
+      <c r="G16">
+        <f>F16*E18</f>
+        <v>1580.3571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>E4+E7+E8+E9+E10+E11+E12</f>
+        <v>21.2</v>
+      </c>
+      <c r="F17">
+        <f>E17/E15</f>
+        <v>0.47321428571428575</v>
+      </c>
+      <c r="G17">
+        <f>F17*E18</f>
+        <v>1419.6428571428573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
